--- a/example_output/csv_data/Validation_swell_added.xlsx
+++ b/example_output/csv_data/Validation_swell_added.xlsx
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>91419634.8732328</v>
+        <v>184408164.9387597</v>
       </c>
       <c r="C2">
-        <v>46308635.73497631</v>
+        <v>92259838.91505134</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>48748652.22604716</v>
+        <v>105776518.8397668</v>
       </c>
       <c r="C3">
-        <v>24838182.68234326</v>
+        <v>52115801.83860195</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -470,10 +470,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>36518545.02844151</v>
+        <v>65319688.74451113</v>
       </c>
       <c r="C4">
-        <v>16769128.95732901</v>
+        <v>29915697.52687296</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29529965.6460862</v>
+        <v>52618397.08947015</v>
       </c>
       <c r="C5">
-        <v>13125003.67909747</v>
+        <v>23218493.31353269</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27817128.62213408</v>
+        <v>52393409.30959573</v>
       </c>
       <c r="C6">
-        <v>12064931.41993654</v>
+        <v>22593164.83046902</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -512,10 +512,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20914168.12553551</v>
+        <v>43913787.16428258</v>
       </c>
       <c r="C7">
-        <v>8930582.294348067</v>
+        <v>18806449.29957822</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -526,10 +526,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22950141.70808326</v>
+        <v>41677204.76110819</v>
       </c>
       <c r="C8">
-        <v>9603736.187806986</v>
+        <v>17923062.95776032</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -540,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23929998.83552155</v>
+        <v>48923285.39682809</v>
       </c>
       <c r="C9">
-        <v>10385720.38076134</v>
+        <v>22136835.62842614</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -554,10 +554,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>38123242.04627538</v>
+        <v>75137807.59089747</v>
       </c>
       <c r="C10">
-        <v>17793057.12311303</v>
+        <v>35863840.94166603</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -568,10 +568,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>49768170.61497</v>
+        <v>106801027.5808776</v>
       </c>
       <c r="C11">
-        <v>23598040.18779062</v>
+        <v>50456388.3182405</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -582,10 +582,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>52988652.23126094</v>
+        <v>112104697.4033566</v>
       </c>
       <c r="C12">
-        <v>25312812.85237917</v>
+        <v>53423244.57584248</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -596,10 +596,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>62534694.14676085</v>
+        <v>126389102.6321382</v>
       </c>
       <c r="C13">
-        <v>31188318.62790468</v>
+        <v>62891365.8917788</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -610,10 +610,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73284313.29947521</v>
+        <v>142321291.3542317</v>
       </c>
       <c r="C14">
-        <v>38920945.19177025</v>
+        <v>74814480.68880057</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -648,10 +648,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>95443249.8268092</v>
+        <v>193279770.1022453</v>
       </c>
       <c r="C2">
-        <v>45339828.33993721</v>
+        <v>89528517.06589615</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -662,10 +662,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51618088.00459109</v>
+        <v>110915108.5467549</v>
       </c>
       <c r="C3">
-        <v>25718416.16636296</v>
+        <v>52292898.22731744</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -676,10 +676,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>39023593.34430171</v>
+        <v>67816337.12785231</v>
       </c>
       <c r="C4">
-        <v>17478388.44243522</v>
+        <v>28691080.63697247</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -690,10 +690,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34475300.49046948</v>
+        <v>54652968.22227819</v>
       </c>
       <c r="C5">
-        <v>15339097.56769344</v>
+        <v>22195065.09432386</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -704,10 +704,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28542404.04166914</v>
+        <v>49848928.55053227</v>
       </c>
       <c r="C6">
-        <v>11409620.18527277</v>
+        <v>19741346.80022854</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -718,10 +718,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20015812.0563725</v>
+        <v>34535974.95571143</v>
       </c>
       <c r="C7">
-        <v>8064520.80616294</v>
+        <v>13881193.43158263</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -732,10 +732,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25231458.26971319</v>
+        <v>36441826.52468979</v>
       </c>
       <c r="C8">
-        <v>10390899.75408582</v>
+        <v>14704081.66305494</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -746,10 +746,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24621577.25017427</v>
+        <v>48260907.26081733</v>
       </c>
       <c r="C9">
-        <v>10420725.25323467</v>
+        <v>20110258.02607381</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -760,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37568508.29823804</v>
+        <v>75223092.23542337</v>
       </c>
       <c r="C10">
-        <v>16425511.17958264</v>
+        <v>33181543.61009645</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -774,10 +774,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>50452176.62038381</v>
+        <v>108905480.1157428</v>
       </c>
       <c r="C11">
-        <v>22796116.77852467</v>
+        <v>47881842.16304622</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -788,10 +788,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>54648005.24820638</v>
+        <v>115628944.8802835</v>
       </c>
       <c r="C12">
-        <v>24975665.15612226</v>
+        <v>51805955.58964063</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -802,10 +802,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>64851864.39932478</v>
+        <v>132469216.9360885</v>
       </c>
       <c r="C13">
-        <v>31446633.10212882</v>
+        <v>63175849.86661611</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -816,10 +816,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>75810086.04734614</v>
+        <v>148907182.5884926</v>
       </c>
       <c r="C14">
-        <v>39675791.33253134</v>
+        <v>76278705.40769833</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
